--- a/Planeacion del proyecto/Plantillas/PL Control de asignaciones.xlsx
+++ b/Planeacion del proyecto/Plantillas/PL Control de asignaciones.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SG701-12\Documents\METFOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruzrodriguez/Desktop/METFOR/Planeacion del proyecto/Plantillas/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC919727-79D8-7048-868F-4FE7F5990DF3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24000" windowHeight="9740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Observaciones</t>
   </si>
@@ -52,9 +53,6 @@
   </si>
   <si>
     <t>Universidad Piloto de Colombia</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
   <si>
     <t>Tiempo Estimado (minutos)</t>
@@ -102,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
@@ -550,64 +548,7 @@
   <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -620,15 +561,6 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -646,15 +578,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -692,12 +615,6 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -705,6 +622,16 @@
     <xf numFmtId="1" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -714,10 +641,81 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Euro" xfId="1"/>
+    <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -745,7 +743,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -776,7 +774,7 @@
         <xdr:cNvPr id="2" name="Picture 2" descr="http://www.acofi.edu.co/wp-content/uploads/2013/10/UNIVERSIDAD-PILOTO-DE-COLOMBIA.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -824,7 +822,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
@@ -937,6 +941,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -972,6 +993,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1147,534 +1185,514 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:I4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="53.85546875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="24" customWidth="1"/>
-    <col min="3" max="6" width="10.7109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="25" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="27" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="27" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="7"/>
+    <col min="1" max="1" width="53.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="5" customWidth="1"/>
+    <col min="3" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="48"/>
+      <c r="B1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
+    </row>
+    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="49"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22" t="s">
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="57"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" spans="1:11" s="31" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="63" t="s">
+      <c r="I7" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
-    </row>
-    <row r="8" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42"/>
+    </row>
+    <row r="8" spans="1:11" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="37"/>
       <c r="J8" s="38"/>
       <c r="K8" s="39"/>
     </row>
-    <row r="9" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
+    <row r="9" spans="1:11" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="37"/>
       <c r="J9" s="38"/>
       <c r="K9" s="39"/>
     </row>
-    <row r="10" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
+    <row r="10" spans="1:11" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="37"/>
       <c r="J10" s="38"/>
       <c r="K10" s="39"/>
     </row>
-    <row r="11" spans="1:11" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
+    <row r="11" spans="1:11" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="37"/>
       <c r="J11" s="38"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="12" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
+    <row r="12" spans="1:11" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="37"/>
       <c r="J12" s="38"/>
       <c r="K12" s="39"/>
     </row>
-    <row r="13" spans="1:11" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
+    <row r="13" spans="1:11" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="37"/>
       <c r="J13" s="38"/>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:11" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
+    <row r="14" spans="1:11" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="37"/>
       <c r="J14" s="38"/>
       <c r="K14" s="39"/>
     </row>
-    <row r="15" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
+    <row r="15" spans="1:11" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
       <c r="K15" s="39"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="37"/>
       <c r="J16" s="38"/>
       <c r="K16" s="39"/>
     </row>
-    <row r="17" spans="1:11" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
+    <row r="17" spans="1:11" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="37"/>
       <c r="J17" s="38"/>
       <c r="K17" s="39"/>
     </row>
-    <row r="18" spans="1:11" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
+    <row r="18" spans="1:11" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="37"/>
       <c r="J18" s="38"/>
       <c r="K18" s="39"/>
     </row>
-    <row r="19" spans="1:11" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
+    <row r="19" spans="1:11" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="37"/>
       <c r="J19" s="38"/>
       <c r="K19" s="39"/>
     </row>
-    <row r="20" spans="1:11" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
+    <row r="20" spans="1:11" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="37"/>
       <c r="J20" s="38"/>
       <c r="K20" s="39"/>
     </row>
-    <row r="21" spans="1:11" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
+    <row r="21" spans="1:11" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="37"/>
       <c r="J21" s="38"/>
       <c r="K21" s="39"/>
     </row>
-    <row r="22" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
+    <row r="22" spans="1:11" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
       <c r="I22" s="37"/>
       <c r="J22" s="38"/>
       <c r="K22" s="39"/>
     </row>
-    <row r="23" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
+    <row r="23" spans="1:11" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="37"/>
       <c r="J23" s="38"/>
       <c r="K23" s="39"/>
     </row>
-    <row r="24" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
+    <row r="24" spans="1:11" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="19"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="37"/>
       <c r="J24" s="38"/>
       <c r="K24" s="39"/>
     </row>
-    <row r="25" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-    </row>
-    <row r="26" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="52"/>
-    </row>
-    <row r="27" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I27" s="45"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="52"/>
-    </row>
-    <row r="28" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I28" s="45"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="52"/>
-    </row>
-    <row r="29" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I29" s="45"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-    </row>
-    <row r="30" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I30" s="45"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-    </row>
-    <row r="31" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I31" s="45"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-    </row>
-    <row r="32" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I32" s="45"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="52"/>
-    </row>
-    <row r="33" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-    </row>
-    <row r="34" spans="1:11" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="44">
+    <row r="25" spans="1:11" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="27"/>
+    </row>
+    <row r="27" spans="1:11" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I27" s="20"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="27"/>
+    </row>
+    <row r="28" spans="1:11" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I28" s="20"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="27"/>
+    </row>
+    <row r="29" spans="1:11" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I29" s="20"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+    </row>
+    <row r="30" spans="1:11" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I30" s="20"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+    </row>
+    <row r="31" spans="1:11" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I31" s="20"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+    </row>
+    <row r="32" spans="1:11" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I32" s="20"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="27"/>
+    </row>
+    <row r="33" spans="1:11" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="1:11" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="19">
         <f>SUM(C8:C26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K35" s="53"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K35" s="28"/>
+    </row>
+    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="60"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
+      <c r="K36" s="28"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="56"/>
-      <c r="K36" s="53"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="42" t="s">
+      <c r="B37" s="32"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="31"/>
+      <c r="K37" s="28"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="56"/>
-      <c r="K37" s="53"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="42" t="s">
+      <c r="B38" s="32"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="31"/>
+      <c r="K38" s="28"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="57"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="56"/>
-      <c r="K38" s="53"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="42" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="31"/>
+      <c r="K39" s="28"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="56"/>
-      <c r="K39" s="53"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="42" t="s">
+      <c r="B40" s="32"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="31"/>
+      <c r="K40" s="28"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="57"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="56"/>
-      <c r="K40" s="53"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="42" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="33"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="60"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="56"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E43" s="56"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="31"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E43" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="A6:K6"/>
@@ -1690,6 +1708,24 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="F3:I4"/>
     <mergeCell ref="B3:E4"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
